--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail15 Features.xlsx
@@ -4646,7 +4646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4700,115 +4698,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4825,72 +4813,66 @@
         <v>1.52653997197959e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2568091698292805</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4746586247114122</v>
+        <v>5.142589154276711e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>-0.0001958199947267207</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.142589154276711e-06</v>
+        <v>0.2201268878872731</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0001958199947267207</v>
+        <v>0.04837863129721873</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2201268878872731</v>
+        <v>1.919698569634827</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04837863129721873</v>
+        <v>1.915759802449502</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.94507830432089</v>
+        <v>5.472023872669013</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.915759802449502</v>
+        <v>1.202726218469763e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.472023872669013</v>
+        <v>371559678.3358162</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.202726218469763e-15</v>
+        <v>3.238211428278518e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>371559678.3358162</v>
+        <v>166.0442859159939</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.238211428278518e-07</v>
+        <v>0.000180969919855937</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>166.0442859159939</v>
+        <v>13.09837580939419</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000180969919855937</v>
+        <v>1.062412629710969</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.09837580939419</v>
+        <v>0.03104854746720851</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.062412629710969</v>
+        <v>3.664415008120129</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03104854746720851</v>
+        <v>0.9603834313216736</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.664415008120129</v>
+        <v>1.15111024328885</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9603834313216736</v>
+        <v>53</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.15111024328885</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>3.337063672176393</v>
       </c>
     </row>
@@ -4905,72 +4887,66 @@
         <v>1.543488843215006e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.275513199498912</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4915780136464694</v>
+        <v>5.141431400432651e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>-0.01350553026798761</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.141431400432651e-06</v>
+        <v>0.1825066127839937</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01350553026798761</v>
+        <v>0.03345399785424345</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1825066127839937</v>
+        <v>1.92100397951124</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03345399785424345</v>
+        <v>1.912752862870301</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.946163516445927</v>
+        <v>5.455434579192245</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.912752862870301</v>
+        <v>1.165491055764244e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.455434579192245</v>
+        <v>377896156.4876968</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.165491055764244e-15</v>
+        <v>3.187889990542689e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>377896156.4876968</v>
+        <v>166.4385388941618</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.187889990542689e-07</v>
+        <v>0.0001602475936190848</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>166.4385388941618</v>
+        <v>13.56000852560885</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001602475936190848</v>
+        <v>0.9980967360438833</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.56000852560885</v>
+        <v>0.02946533898165898</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9980967360438833</v>
+        <v>3.913558152210035</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02946533898165898</v>
+        <v>0.9594045057668321</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.913558152210035</v>
+        <v>1.104533856984422</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9594045057668321</v>
+        <v>53</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.104533856984422</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.819270236087855</v>
       </c>
     </row>
@@ -4985,72 +4961,66 @@
         <v>1.571647143007359e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.272269291618488</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5851201184883017</v>
+        <v>5.138768239463069e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>-0.01940512967214114</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.138768239463069e-06</v>
+        <v>0.1645076630166478</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01940512967214114</v>
+        <v>0.02742300958513337</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1645076630166478</v>
+        <v>1.91409198816316</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02742300958513337</v>
+        <v>1.849265456216069</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.936473622364031</v>
+        <v>4.92647293165863</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.849265456216069</v>
+        <v>2.005929742468669e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.92647293165863</v>
+        <v>219327865.8242533</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.005929742468669e-15</v>
+        <v>5.496757795582965e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>219327865.8242533</v>
+        <v>96.4946740120438</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.496757795582965e-07</v>
+        <v>0.0002024036404318967</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>96.4946740120438</v>
+        <v>13.81508295602374</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002024036404318967</v>
+        <v>1.205990247154253</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.81508295602374</v>
+        <v>0.03863005385751236</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.205990247154253</v>
+        <v>3.699764477507853</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03863005385751236</v>
+        <v>0.9604911185233037</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.699764477507853</v>
+        <v>1.171247479390554</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9604911185233037</v>
+        <v>53</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.171247479390554</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.860457098669721</v>
       </c>
     </row>
@@ -5065,72 +5035,66 @@
         <v>1.593153002902276e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2380949040067871</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6875358176599531</v>
+        <v>5.135634726162693e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>-0.0191845537767374</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.135634726162693e-06</v>
+        <v>0.1621415582769632</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0191845537767374</v>
+        <v>0.02664392891057944</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1621415582769632</v>
+        <v>1.900963822804346</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02664392891057944</v>
+        <v>1.728933272526678</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.917007791114204</v>
+        <v>4.575829854688843</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.728933272526678</v>
+        <v>3.992542525978343e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.575829854688843</v>
+        <v>108748632.1390077</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.992542525978343e-15</v>
+        <v>1.106214108204922e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>108748632.1390077</v>
+        <v>47.216865904469</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.106214108204922e-06</v>
+        <v>0.0002378486828523025</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>47.216865904469</v>
+        <v>12.6150586998236</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002378486828523025</v>
+        <v>1.278410058832903</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.6150586998236</v>
+        <v>0.03785116946160151</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.278410058832903</v>
+        <v>2.865618958378225</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03785116946160151</v>
+        <v>0.9602323610765352</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.865618958378225</v>
+        <v>1.278160916301252</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9602323610765352</v>
+        <v>23</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.278160916301252</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.033042017576755</v>
       </c>
     </row>
@@ -5145,72 +5109,66 @@
         <v>1.602553132374573e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.194585811669387</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7459383958989276</v>
+        <v>5.132924786394647e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>-0.01377500304534644</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.132924786394647e-06</v>
+        <v>0.1724055680313208</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01377500304534644</v>
+        <v>0.02988949038098883</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1724055680313208</v>
+        <v>1.902134351307188</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02988949038098883</v>
+        <v>1.627293542480427</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.904404937620528</v>
+        <v>4.439142560751566</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.627293542480427</v>
+        <v>7.943376732435108e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.439142560751566</v>
+        <v>56451856.65487849</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.943376732435108e-15</v>
+        <v>2.142319489242292e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>56451856.65487849</v>
+        <v>25.31404924292608</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.142319489242292e-06</v>
+        <v>0.0002464295348558572</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>25.31404924292608</v>
+        <v>12.23691591113976</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002464295348558572</v>
+        <v>1.202150447315286</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.23691591113976</v>
+        <v>0.03690087876608229</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.202150447315286</v>
+        <v>2.408692911641871</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03690087876608229</v>
+        <v>0.9593054349676881</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.408692911641871</v>
+        <v>1.362677336956709</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9593054349676881</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.362677336956709</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4081583659532746</v>
       </c>
     </row>
@@ -5225,72 +5183,66 @@
         <v>1.602587790750398e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1690341154050614</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7524414889727704</v>
+        <v>5.131490435447183e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>-0.003116057191450168</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.131490435447183e-06</v>
+        <v>0.1962879325962801</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.003116057191450168</v>
+        <v>0.03849171676678737</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1962879325962801</v>
+        <v>1.886069395964493</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03849171676678737</v>
+        <v>1.57771057870877</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.884427867400999</v>
+        <v>3.631180113505568</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.57771057870877</v>
+        <v>1.404804223552971e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.631180113505568</v>
+        <v>30251615.06050718</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.404804223552971e-14</v>
+        <v>3.965849429172262e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>30251615.06050718</v>
+        <v>12.85620933530478</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.965849429172262e-06</v>
+        <v>0.0002547817703902856</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>12.85620933530478</v>
+        <v>12.76689459724347</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002547817703902856</v>
+        <v>1.113777358301457</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.76689459724347</v>
+        <v>0.04152779737336408</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.113777358301457</v>
+        <v>2.153764497752177</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.04152779737336408</v>
+        <v>0.9602336970063223</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.153764497752177</v>
+        <v>1.43694070089456</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9602336970063223</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.43694070089456</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2311018345415218</v>
       </c>
     </row>
@@ -5305,72 +5257,66 @@
         <v>1.607090294451387e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1750424003299652</v>
+        <v>5.89484051550612e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7690429162158545</v>
+        <v>5.132184405711786e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.89484051550612e-07</v>
+        <v>0.01263258945148087</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.132184405711786e-06</v>
+        <v>0.232207639571688</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01263258945148087</v>
+        <v>0.05400513228871483</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.232207639571688</v>
+        <v>1.848874686218567</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05400513228871483</v>
+        <v>1.578629002779816</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.836604714123997</v>
+        <v>3.248618572596852</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.578629002779816</v>
+        <v>1.755148798484593e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.248618572596852</v>
+        <v>24359232.81524763</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.755148798484593e-14</v>
+        <v>4.855234877042269e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>24359232.81524763</v>
+        <v>10.41456544862386</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.855234877042269e-06</v>
+        <v>0.0002551691822672907</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.41456544862386</v>
+        <v>13.8779217421595</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002551691822672907</v>
+        <v>0.990257435120618</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.8779217421595</v>
+        <v>0.04914474547817223</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.990257435120618</v>
+        <v>1.962608223534564</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.04914474547817223</v>
+        <v>0.957268812809262</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.962608223534564</v>
+        <v>1.478584737438079</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.957268812809262</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.478584737438079</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1836856335205165</v>
       </c>
     </row>
@@ -5385,72 +5331,66 @@
         <v>1.643552332902129e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1474276534099493</v>
+        <v>6.41395209344552e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8039114157653326</v>
+        <v>5.135704000403753e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.41395209344552e-07</v>
+        <v>0.03088404188212533</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.135704000403753e-06</v>
+        <v>0.2654459464965429</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03088404188212533</v>
+        <v>0.07133861319605893</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2654459464965429</v>
+        <v>1.761577399564715</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07133861319605893</v>
+        <v>1.589515373628753</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.722754804904332</v>
+        <v>4.583263128745367</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.589515373628753</v>
+        <v>1.801050939327904e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.583263128745367</v>
+        <v>24473378.33141497</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.801050939327904e-14</v>
+        <v>4.679518217209038e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>24473378.33141497</v>
+        <v>10.78732700680852</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.679518217209038e-06</v>
+        <v>0.0002360390409182813</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10.78732700680852</v>
+        <v>13.15368944985733</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002360390409182813</v>
+        <v>1.025059685459058</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.15368944985733</v>
+        <v>0.04083936773177799</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.025059685459058</v>
+        <v>2.122238036571126</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.04083936773177799</v>
+        <v>0.9535335100283551</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.122238036571126</v>
+        <v>1.674701956107971</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9535335100283551</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.674701956107971</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1686471036288828</v>
       </c>
     </row>
@@ -5465,72 +5405,66 @@
         <v>1.737927679166423e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.041793647156882</v>
+        <v>8.059424589638776e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5235747939047859</v>
+        <v>5.142280946933781e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.059424589638776e-07</v>
+        <v>0.04621689695989743</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.142280946933781e-06</v>
+        <v>0.2767673372490876</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.04621689695989743</v>
+        <v>0.07868758899454791</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2767673372490876</v>
+        <v>1.738447178062523</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.07868758899454791</v>
+        <v>1.603219754972482</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.683251926995265</v>
+        <v>4.548567438011881</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.603219754972482</v>
+        <v>2.894685859016572e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.548567438011881</v>
+        <v>16435106.85086393</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.894685859016572e-14</v>
+        <v>6.972421839203388e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>16435106.85086393</v>
+        <v>7.818915207111147</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.972421839203388e-06</v>
+        <v>0.0002364270798440134</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.818915207111147</v>
+        <v>9.597295916524891</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002364270798440134</v>
+        <v>1.591871036504503</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.597295916524891</v>
+        <v>0.02177684649084928</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.591871036504503</v>
+        <v>2.517169174101149</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02177684649084928</v>
+        <v>0.952607044998234</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.517169174101149</v>
+        <v>1.767775108553814</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.952607044998234</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.767775108553814</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1353453450247703</v>
       </c>
     </row>
@@ -5545,72 +5479,66 @@
         <v>1.89325820403715e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.383385177672536</v>
+        <v>9.475075872563125e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2354118245629442</v>
+        <v>5.15164582623029e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.475075872563125e-07</v>
+        <v>0.05641947455844509</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.15164582623029e-06</v>
+        <v>0.2689572339816001</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05641947455844509</v>
+        <v>0.07548829827428541</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2689572339816001</v>
+        <v>1.669634818644253</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.07548829827428541</v>
+        <v>1.602184914662402</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.607281773182021</v>
+        <v>4.232221769910122</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.602184914662402</v>
+        <v>3.343596654277054e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.232221769910122</v>
+        <v>13863523.72666304</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.343596654277054e-14</v>
+        <v>7.990776504082045e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>13863523.72666304</v>
+        <v>6.426302162055094</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.990776504082045e-06</v>
+        <v>0.0002019851141824068</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.426302162055094</v>
+        <v>9.204525366935584</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002019851141824068</v>
+        <v>1.503984215255699</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.204525366935584</v>
+        <v>0.01711284284517364</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.503984215255699</v>
+        <v>2.634462018683637</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01711284284517364</v>
+        <v>0.9478192670107367</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.634462018683637</v>
+        <v>1.762244801624848</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9478192670107367</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.762244801624848</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1351136193718616</v>
       </c>
     </row>
@@ -5625,72 +5553,66 @@
         <v>2.097769046701216e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7493409670484172</v>
+        <v>1.05672683444622e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.112701471997593</v>
+        <v>5.163471061633538e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.05672683444622e-06</v>
+        <v>0.06106779261054306</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.163471061633538e-06</v>
+        <v>0.2495328363481583</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.06106779261054306</v>
+        <v>0.06598745478038326</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2495328363481583</v>
+        <v>1.580359646501852</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.06598745478038326</v>
+        <v>1.399501264499085</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.505328807200327</v>
+        <v>4.766244987410797</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.399501264499085</v>
+        <v>6.585920183808577e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.766244987410797</v>
+        <v>7409879.658764973</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.585920183808577e-14</v>
+        <v>1.435996864995443e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>7409879.658764973</v>
+        <v>3.616086184338248</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.435996864995443e-05</v>
+        <v>0.000188958196709329</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3.616086184338248</v>
+        <v>9.877034632937027</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000188958196709329</v>
+        <v>1.303604618900382</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.877034632937027</v>
+        <v>0.01843397052949153</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.303604618900382</v>
+        <v>2.639332553624863</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01843397052949153</v>
+        <v>0.9418368325119302</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.639332553624863</v>
+        <v>1.823768240448708</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9418368325119302</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.823768240448708</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1350988134131141</v>
       </c>
     </row>
@@ -5705,72 +5627,66 @@
         <v>2.315940069124199e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.991439052207451</v>
+        <v>1.096123068446479e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.537294186880384</v>
+        <v>5.17685253077783e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.096123068446479e-06</v>
+        <v>0.05941556659938695</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.17685253077783e-06</v>
+        <v>0.2260759391287771</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05941556659938695</v>
+        <v>0.05464055982105544</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2260759391287771</v>
+        <v>1.542385493025113</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05464055982105544</v>
+        <v>1.399592820846409</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.469272138751963</v>
+        <v>3.87280188122832</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.399592820846409</v>
+        <v>9.975131394067133e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.87280188122832</v>
+        <v>5003854.276121295</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.975131394067133e-14</v>
+        <v>2.080552217298708e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>5003854.276121295</v>
+        <v>2.497629021440777</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.080552217298708e-05</v>
+        <v>0.0001830981081275148</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2.497629021440777</v>
+        <v>11.46317503612756</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001830981081275148</v>
+        <v>1.121185765876501</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.46317503612756</v>
+        <v>0.02405989372718467</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.121185765876501</v>
+        <v>2.636464927633578</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02405989372718467</v>
+        <v>0.9384747520430788</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.636464927633578</v>
+        <v>1.845030222765423</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9384747520430788</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.845030222765423</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1417919167101818</v>
       </c>
     </row>
@@ -5785,72 +5701,66 @@
         <v>2.5133623742107e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.083556135055366</v>
+        <v>1.09703826586831e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.457605086110404</v>
+        <v>5.190715826140334e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.09703826586831e-06</v>
+        <v>0.05518497259234384</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.190715826140334e-06</v>
+        <v>0.2081485282319324</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05518497259234384</v>
+        <v>0.04637100907381582</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2081485282319324</v>
+        <v>1.503171817978119</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04637100907381582</v>
+        <v>1.401812595285137</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.424591720534269</v>
+        <v>3.757450538664938</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.401812595285137</v>
+        <v>1.059699284954047e-13</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.757450538664938</v>
+        <v>4813239.000214106</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.059699284954047e-13</v>
+        <v>2.132064753352112e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4813239.000214106</v>
+        <v>2.455033910700864</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.132064753352112e-05</v>
+        <v>0.0001787953471568364</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.455033910700864</v>
+        <v>13.46512570306804</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001787953471568364</v>
+        <v>1.014730985095467</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.46512570306804</v>
+        <v>0.03241731469847661</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.014730985095467</v>
+        <v>2.594661355673622</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03241731469847661</v>
+        <v>0.9352939289069314</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.594661355673622</v>
+        <v>1.897634665944358</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9352939289069314</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.897634665944358</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1577171079564119</v>
       </c>
     </row>
@@ -5865,72 +5775,66 @@
         <v>2.680274402114433e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.083356718999981</v>
+        <v>1.09703826586831e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.150155296164449</v>
+        <v>5.204494931565695e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.09703826586831e-06</v>
+        <v>0.05094795540115832</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.204494931565695e-06</v>
+        <v>0.1956626674540426</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05094795540115832</v>
+        <v>0.04087927324759063</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1956626674540426</v>
+        <v>1.485737153723714</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04087927324759063</v>
+        <v>1.401254174122265</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.404323799359578</v>
+        <v>3.759650480844134</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.401254174122265</v>
+        <v>1.058459491468957e-13</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.759650480844134</v>
+        <v>4820519.063309944</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.058459491468957e-13</v>
+        <v>2.113059372626941e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>4820519.063309944</v>
+        <v>2.459585086295614</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.113059372626941e-05</v>
+        <v>0.0001710943185249333</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.459585086295614</v>
+        <v>12.34113801243726</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001710943185249333</v>
+        <v>1.180957733333376</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.34113801243726</v>
+        <v>0.02605829561172752</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.180957733333376</v>
+        <v>2.872770912871766</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02605829561172752</v>
+        <v>0.9339711865736644</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.872770912871766</v>
+        <v>1.885063427139986</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9339711865736644</v>
+        <v>6</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.885063427139986</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1617018330542637</v>
       </c>
     </row>
@@ -5945,72 +5849,66 @@
         <v>2.820169701670054e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.038800794787791</v>
+        <v>1.09703826586831e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7945341107731574</v>
+        <v>5.218017201162871e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.09703826586831e-06</v>
+        <v>0.04745708565831106</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.218017201162871e-06</v>
+        <v>0.1864686367890089</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04745708565831106</v>
+        <v>0.03702272645465716</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1864686367890089</v>
+        <v>1.485816565716261</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03702272645465716</v>
+        <v>1.40369761770957</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.400859683277338</v>
+        <v>3.757566065013767</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.40369761770957</v>
+        <v>1.059634125057892e-13</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.757566065013767</v>
+        <v>4827226.526634358</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.059634125057892e-13</v>
+        <v>2.11328292985573e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>4827226.526634358</v>
+        <v>2.469171723548861</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.11328292985573e-05</v>
+        <v>0.0001611980800437894</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.469171723548861</v>
+        <v>9.569980206000908</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001611980800437894</v>
+        <v>1.529143701369957</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.569980206000908</v>
+        <v>0.0147632489700216</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.529143701369957</v>
+        <v>3.073011262659316</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0147632489700216</v>
+        <v>0.936020876906606</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.073011262659316</v>
+        <v>1.900435383513614</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.936020876906606</v>
+        <v>6</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.900435383513614</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1580143812686074</v>
       </c>
     </row>
@@ -6025,72 +5923,66 @@
         <v>2.940268321551651e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9758286090955361</v>
+        <v>1.09703826586831e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.459740002876404</v>
+        <v>5.231283704396652e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.09703826586831e-06</v>
+        <v>0.04474591450445083</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.231283704396652e-06</v>
+        <v>0.1791330593809808</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04474591450445083</v>
+        <v>0.0340910610142907</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1791330593809808</v>
+        <v>1.488867163584038</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0340910610142907</v>
+        <v>1.398527915362179</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.404247394834782</v>
+        <v>3.73858056845233</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.398527915362179</v>
+        <v>1.070423653921411e-13</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.73858056845233</v>
+        <v>4839588.31674946</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.070423653921411e-13</v>
+        <v>2.116930177596119e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>4839588.31674946</v>
+        <v>2.507105078998369</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.116930177596119e-05</v>
+        <v>0.0001563846257603721</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.507105078998369</v>
+        <v>8.572808965292484</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001563846257603721</v>
+        <v>1.535950158619939</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.572808965292484</v>
+        <v>0.01149318367624809</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.535950158619939</v>
+        <v>3.020094974415958</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01149318367624809</v>
+        <v>0.9351076675875141</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.020094974415958</v>
+        <v>1.898097206314952</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9351076675875141</v>
+        <v>6</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.898097206314952</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1530865042513747</v>
       </c>
     </row>
@@ -6467,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.476550055542762</v>
+        <v>1.433603932866779</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.881861328835225</v>
@@ -6556,7 +6448,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434940694819045</v>
+        <v>1.394974700659391</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.906950141018902</v>
@@ -6645,7 +6537,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.410263637170138</v>
+        <v>1.375749697972874</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.723247129076804</v>
@@ -6734,7 +6626,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.365643529881547</v>
+        <v>1.336379701104332</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.959124009766734</v>
@@ -6823,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.349638738839206</v>
+        <v>1.323041728484798</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.963261969273316</v>
@@ -6912,7 +6804,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.30084156119825</v>
+        <v>1.276027620913193</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.019585685129884</v>
@@ -7001,7 +6893,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.299814705602285</v>
+        <v>1.267930709049074</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.052398041943412</v>
@@ -7090,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.284401933343738</v>
+        <v>1.259886889960459</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.040087877041784</v>
@@ -7179,7 +7071,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.30213682471458</v>
+        <v>1.274197300013421</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.04716309378229</v>
@@ -7268,7 +7160,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.265191579414445</v>
+        <v>1.237823267249763</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.081074137147576</v>
@@ -7357,7 +7249,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.255317212136412</v>
+        <v>1.233137317747704</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.030780949116315</v>
@@ -7446,7 +7338,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.255211417205836</v>
+        <v>1.234864944586596</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.094103523254183</v>
@@ -7535,7 +7427,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.255106117568534</v>
+        <v>1.234935006453343</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.097021749880946</v>
@@ -7624,7 +7516,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.257494543927781</v>
+        <v>1.236806923012137</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.008420434818987</v>
@@ -7713,7 +7605,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.251130149821942</v>
+        <v>1.23186453338111</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.125383096421767</v>
@@ -7802,7 +7694,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.246468031629315</v>
+        <v>1.229345187253599</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.093051604571882</v>
@@ -7891,7 +7783,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.26062855593055</v>
+        <v>1.243555759243737</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.981055508451881</v>
@@ -7980,7 +7872,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.279243778756933</v>
+        <v>1.255515014625366</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.88892786761819</v>
@@ -8069,7 +7961,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.270377639124093</v>
+        <v>1.246872016033625</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.005745222596662</v>
@@ -8158,7 +8050,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.37024091542278</v>
+        <v>1.337691176814098</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.948051917497384</v>
@@ -8247,7 +8139,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.420369311037267</v>
+        <v>1.377056163640252</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.056012203045734</v>
@@ -8336,7 +8228,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.410461204590531</v>
+        <v>1.369599295859972</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.132908808108219</v>
@@ -8425,7 +8317,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.410401185162205</v>
+        <v>1.369461850003134</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.106758962075996</v>
@@ -8514,7 +8406,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.420063804731824</v>
+        <v>1.378053880376257</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.015127062358701</v>
@@ -8603,7 +8495,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.473091767966999</v>
+        <v>1.421533314890007</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.073195084545973</v>
@@ -8692,7 +8584,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.475784504161351</v>
+        <v>1.423363826712194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.03049635365554</v>
@@ -8781,7 +8673,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472952226280847</v>
+        <v>1.419359927797237</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.011091596102737</v>
@@ -8870,7 +8762,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.465715649470302</v>
+        <v>1.413445636410622</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.025893760961791</v>
@@ -8959,7 +8851,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.483156403971796</v>
+        <v>1.426853950481243</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.887116155406357</v>
@@ -9048,7 +8940,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.519561673906088</v>
+        <v>1.455859217477112</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.947134826488808</v>
@@ -9137,7 +9029,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528460021461043</v>
+        <v>1.465335763361014</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.015829894420012</v>
@@ -9226,7 +9118,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528721105644658</v>
+        <v>1.461803534269185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.975983145544428</v>
@@ -9315,7 +9207,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.537322627000671</v>
+        <v>1.470903893611791</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.962187523545885</v>
@@ -9404,7 +9296,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.590781773943771</v>
+        <v>1.509545842321525</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.833827787670085</v>
@@ -9493,7 +9385,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.440976743860261</v>
+        <v>1.396966397600221</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.759622554734952</v>
@@ -9582,7 +9474,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.390672863849667</v>
+        <v>1.365145401054559</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.845094538854954</v>
@@ -9671,7 +9563,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.443526761642323</v>
+        <v>1.413650384782724</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.812859786040796</v>
@@ -9760,7 +9652,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.433524448482128</v>
+        <v>1.39923655969041</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.804825255883734</v>
@@ -9849,7 +9741,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.403433161124698</v>
+        <v>1.38075699038638</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.830000617980347</v>
@@ -9938,7 +9830,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.363829098417506</v>
+        <v>1.349432003442365</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.84167628551001</v>
@@ -10027,7 +9919,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.35743347391146</v>
+        <v>1.343778995316297</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.867564156456643</v>
@@ -10116,7 +10008,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.343093513008407</v>
+        <v>1.32044686750207</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.687045233707987</v>
@@ -10205,7 +10097,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.293658020135321</v>
+        <v>1.293728452270263</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.77301999445831</v>
@@ -10294,7 +10186,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.287921256416436</v>
+        <v>1.29197448884655</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.79161947598686</v>
@@ -10383,7 +10275,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.303334749356968</v>
+        <v>1.309548506850459</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.804706758516363</v>
@@ -10472,7 +10364,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.305330279941162</v>
+        <v>1.311041422791687</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.804646231873521</v>
@@ -10561,7 +10453,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.294068479852854</v>
+        <v>1.303609783634186</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.812674347473418</v>
@@ -10650,7 +10542,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.294549142575821</v>
+        <v>1.304355730470401</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.807960962112211</v>
@@ -10739,7 +10631,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.305730189931108</v>
+        <v>1.309084010065626</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.821456875756669</v>
@@ -10828,7 +10720,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.319816626610484</v>
+        <v>1.336926267570287</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.796035002263777</v>
@@ -10917,7 +10809,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.333633348977229</v>
+        <v>1.355182873696722</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.836572249314776</v>
@@ -11006,7 +10898,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.339523228737437</v>
+        <v>1.357933925886053</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.866300133058558</v>
@@ -11095,7 +10987,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.358550320439044</v>
+        <v>1.377432572577426</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.850059591315385</v>
@@ -11184,7 +11076,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.365321167410637</v>
+        <v>1.377121780723659</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.907105541313965</v>
@@ -11273,7 +11165,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.401794684366238</v>
+        <v>1.409636357568906</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.9568274889862</v>
@@ -11362,7 +11254,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.367970524732047</v>
+        <v>1.373891453752518</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.948701077677422</v>
@@ -11451,7 +11343,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.414936855937484</v>
+        <v>1.410049627305075</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.676420173457074</v>
@@ -11540,7 +11432,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.43729449126535</v>
+        <v>1.430972550290914</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.21972639607057</v>
@@ -11629,7 +11521,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.45801155586349</v>
+        <v>1.438527713306934</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.156764302996582</v>
@@ -11718,7 +11610,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.447229732178172</v>
+        <v>1.425361201778207</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.19042462925534</v>
@@ -11807,7 +11699,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.416293938245205</v>
+        <v>1.393906160317409</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.192916076636655</v>
@@ -12093,7 +11985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.4490869963526</v>
+        <v>1.420642674905721</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.799000247861389</v>
@@ -12182,7 +12074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.395256619638168</v>
+        <v>1.369133445123604</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.830377392573828</v>
@@ -12271,7 +12163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.368924377343124</v>
+        <v>1.344694262068053</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.667129312871195</v>
@@ -12360,7 +12252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.325821498933468</v>
+        <v>1.306596201583828</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.879733222050661</v>
@@ -12449,7 +12341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.309479276322185</v>
+        <v>1.287084349049019</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.881659050271688</v>
@@ -12538,7 +12430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.263525552604257</v>
+        <v>1.240016649986249</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.956139177926842</v>
@@ -12627,7 +12519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.264686172603496</v>
+        <v>1.232467849600106</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.97899695165097</v>
@@ -12716,7 +12608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.252915804242739</v>
+        <v>1.227791676916013</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.985247501715015</v>
@@ -12805,7 +12697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.274426280299892</v>
+        <v>1.244612848072154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.009115639640673</v>
@@ -12894,7 +12786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.236980877344974</v>
+        <v>1.208810206616221</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.059231941990113</v>
@@ -12983,7 +12875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.228072768453831</v>
+        <v>1.203818996310303</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.05157087194823</v>
@@ -13072,7 +12964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.22815259653203</v>
+        <v>1.203757261936662</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.046396630453862</v>
@@ -13161,7 +13053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.229883710713642</v>
+        <v>1.205059053497646</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.051961359421462</v>
@@ -13250,7 +13142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.229834397836362</v>
+        <v>1.203466429955901</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.983682080862187</v>
@@ -13339,7 +13231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.226495753348408</v>
+        <v>1.202573088694961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.071840173781548</v>
@@ -13428,7 +13320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.220709418147117</v>
+        <v>1.199398382374895</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.058576304232806</v>
@@ -13517,7 +13409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.235235423035644</v>
+        <v>1.212854763540836</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.947804991069984</v>
@@ -13606,7 +13498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.256409318568834</v>
+        <v>1.228879653298868</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.833298163468324</v>
@@ -13695,7 +13587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.24549848195663</v>
+        <v>1.21771767490617</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.951706621332249</v>
@@ -13784,7 +13676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.358865088286602</v>
+        <v>1.326615216014402</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.924101177414507</v>
@@ -13873,7 +13765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.409288500847451</v>
+        <v>1.366112880789371</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.016734680283299</v>
@@ -13962,7 +13854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.400010638468483</v>
+        <v>1.359865347643511</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.092441434880275</v>
@@ -14051,7 +13943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.399792340065519</v>
+        <v>1.361814866393646</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.065128757990477</v>
@@ -14140,7 +14032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.41158789353407</v>
+        <v>1.371475578228875</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.000994187562772</v>
@@ -14229,7 +14121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.464659888182432</v>
+        <v>1.416129874954261</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.034211042593064</v>
@@ -14318,7 +14210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.471605452611371</v>
+        <v>1.422234328451832</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.979902506236186</v>
@@ -14407,7 +14299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472499735971872</v>
+        <v>1.422842758990192</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.976774084772605</v>
@@ -14496,7 +14388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.468041995240343</v>
+        <v>1.419463836635336</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.970322953385421</v>
@@ -14585,7 +14477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.489250955960735</v>
+        <v>1.436442779129317</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.84972697240978</v>
@@ -14674,7 +14566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.526239777182107</v>
+        <v>1.463548889486566</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.899260272353258</v>
@@ -14763,7 +14655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.537519455835247</v>
+        <v>1.473816886088959</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.957142736436091</v>
@@ -14852,7 +14744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.535506285871942</v>
+        <v>1.467927368554161</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.932089942672566</v>
@@ -14941,7 +14833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543102436671036</v>
+        <v>1.475024222569897</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.921087430917926</v>
@@ -15030,7 +14922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603673313725441</v>
+        <v>1.51603538594232</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.78381816092033</v>
@@ -15119,7 +15011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.43066171924628</v>
+        <v>1.381441562072758</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.705384252575731</v>
@@ -15208,7 +15100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.373474707911543</v>
+        <v>1.344425686003177</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.779458089563962</v>
@@ -15297,7 +15189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.431326241788479</v>
+        <v>1.396543591077415</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.730811213982533</v>
@@ -15386,7 +15278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.413669957972135</v>
+        <v>1.366683428532961</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.724539430868408</v>
@@ -15475,7 +15367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.380022277309049</v>
+        <v>1.349077324233091</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.743409657987759</v>
@@ -15564,7 +15456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.33730720692039</v>
+        <v>1.313953585463164</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.760758061855398</v>
@@ -15653,7 +15545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.325806560780281</v>
+        <v>1.30255521211046</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.762238884737098</v>
@@ -15742,7 +15634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.329411962085284</v>
+        <v>1.308392704334157</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.770818535117037</v>
@@ -15831,7 +15723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.330368363714777</v>
+        <v>1.310342651614007</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.793772095003659</v>
@@ -15920,7 +15812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.303246075437917</v>
+        <v>1.289346738523358</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.80931928560014</v>
@@ -16009,7 +15901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.308027119751525</v>
+        <v>1.295003595587983</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.816194436880615</v>
@@ -16098,7 +15990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.305596103463446</v>
+        <v>1.289975636472757</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.787573009565857</v>
@@ -16187,7 +16079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.282781391102064</v>
+        <v>1.272137241631539</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.808698721803631</v>
@@ -16276,7 +16168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.280320580263461</v>
+        <v>1.268546457521984</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.805753363041699</v>
@@ -16365,7 +16257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.302916169850158</v>
+        <v>1.282335182492855</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.833572646115263</v>
@@ -16454,7 +16346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.312821351658341</v>
+        <v>1.310890965035454</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.964277901063372</v>
@@ -16543,7 +16435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.305074433535871</v>
+        <v>1.303893616232002</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.062490189098393</v>
@@ -16632,7 +16524,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.294512890313005</v>
+        <v>1.289324016306302</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.057046216840341</v>
@@ -16721,7 +16613,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.289404411755126</v>
+        <v>1.287413202263077</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.944136534740632</v>
@@ -16810,7 +16702,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.29022945937982</v>
+        <v>1.277987534117476</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.834691243499504</v>
@@ -16899,7 +16791,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.338530235768385</v>
+        <v>1.31632948668178</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.858043681607393</v>
@@ -16988,7 +16880,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.294084538508865</v>
+        <v>1.271667505862892</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.935804697199631</v>
@@ -17077,7 +16969,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.288615747980836</v>
+        <v>1.266110317252885</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.961750616566223</v>
@@ -17166,7 +17058,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.308236137387647</v>
+        <v>1.281343530037004</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.916292828299762</v>
@@ -17255,7 +17147,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.337402651639861</v>
+        <v>1.299379455255168</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.987211403574822</v>
@@ -17344,7 +17236,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.337523379358906</v>
+        <v>1.29950321607996</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.014880798277885</v>
@@ -17433,7 +17325,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.316898063983161</v>
+        <v>1.278936367021921</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.048807867228149</v>
@@ -17719,7 +17611,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.510858771316469</v>
+        <v>1.462703721388865</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.855674675899081</v>
@@ -17808,7 +17700,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.450308190679215</v>
+        <v>1.408664881086273</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.890058662989963</v>
@@ -17897,7 +17789,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.422469125911992</v>
+        <v>1.385739870158641</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.698471368609277</v>
@@ -17986,7 +17878,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37441696185033</v>
+        <v>1.346898941930512</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.931070995767434</v>
@@ -18075,7 +17967,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.344438460442628</v>
+        <v>1.317685977038329</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.932190680487853</v>
@@ -18164,7 +18056,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.291443496777161</v>
+        <v>1.26580679360626</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.989919024994081</v>
@@ -18253,7 +18145,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.291784067897337</v>
+        <v>1.258388716599775</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.010030655410164</v>
@@ -18342,7 +18234,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.276844334527729</v>
+        <v>1.253601499139996</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.024748490171459</v>
@@ -18431,7 +18323,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.297088859070721</v>
+        <v>1.270321267076021</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.02750275787032</v>
@@ -18520,7 +18412,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.255764299056213</v>
+        <v>1.229419320997248</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.071733964943914</v>
@@ -18609,7 +18501,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.241607985646966</v>
+        <v>1.220965400039457</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.079230809694665</v>
@@ -18698,7 +18590,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.241324602338995</v>
+        <v>1.220014444578823</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.08492688805316</v>
@@ -18787,7 +18679,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.240775826821078</v>
+        <v>1.21957954432865</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.064201340972562</v>
@@ -18876,7 +18768,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.241127690791965</v>
+        <v>1.218215565489107</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.000142016919187</v>
@@ -18965,7 +18857,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.236331259043619</v>
+        <v>1.215447633762436</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.099933866782866</v>
@@ -19054,7 +18946,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.233152187075382</v>
+        <v>1.213344537679486</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.061174892648705</v>
@@ -19143,7 +19035,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.249611253549357</v>
+        <v>1.229590410200089</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.964607174665523</v>
@@ -19232,7 +19124,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.271198074890101</v>
+        <v>1.246124009587019</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.870822025674985</v>
@@ -19321,7 +19213,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.261096993045815</v>
+        <v>1.235849227263444</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.979163856923369</v>
@@ -19410,7 +19302,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.36738965047857</v>
+        <v>1.335023677550443</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.935046763471535</v>
@@ -19499,7 +19391,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.417406315043797</v>
+        <v>1.373615028480348</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.043382439895891</v>
@@ -19588,7 +19480,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.407910464343872</v>
+        <v>1.366417516579445</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.127045366511709</v>
@@ -19677,7 +19569,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.405957674349438</v>
+        <v>1.363797127051723</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.103664359420959</v>
@@ -19766,7 +19658,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.416266047407723</v>
+        <v>1.37293711453689</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.008691002995736</v>
@@ -19855,7 +19747,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.470829240309116</v>
+        <v>1.417421294493893</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.077903970030163</v>
@@ -19944,7 +19836,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.480204187812008</v>
+        <v>1.423370741611878</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.014590147493112</v>
@@ -20033,7 +19925,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.481963103147455</v>
+        <v>1.425098171809618</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.010974580156671</v>
@@ -20122,7 +20014,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.478432868247342</v>
+        <v>1.421157252443807</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.993814828660615</v>
@@ -20211,7 +20103,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.495654934683689</v>
+        <v>1.435299126960414</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.864859003999529</v>
@@ -20300,7 +20192,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536731400236312</v>
+        <v>1.465959246311181</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.934518272501123</v>
@@ -20389,7 +20281,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540407118122385</v>
+        <v>1.469826643681444</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.99690745846276</v>
@@ -20478,7 +20370,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.537016750645792</v>
+        <v>1.462638203992836</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.961613337094108</v>
@@ -20567,7 +20459,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.540830915697098</v>
+        <v>1.464840738348318</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.932253371233536</v>
@@ -20656,7 +20548,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601169698981989</v>
+        <v>1.506038059955456</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.803196952667287</v>
@@ -20745,7 +20637,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.436301556600931</v>
+        <v>1.377860871625126</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.726055595037553</v>
@@ -20834,7 +20726,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.383546541228666</v>
+        <v>1.344755537553005</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.803146088357954</v>
@@ -20923,7 +20815,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.442455675364928</v>
+        <v>1.395223578820985</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.751271119822015</v>
@@ -21012,7 +20904,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.431103951360757</v>
+        <v>1.379022954306158</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.760237855468986</v>
@@ -21101,7 +20993,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.395289712791142</v>
+        <v>1.358658818702985</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.775072901539935</v>
@@ -21190,7 +21082,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.349371786381201</v>
+        <v>1.32298989886663</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.797892124718055</v>
@@ -21279,7 +21171,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.339148531025214</v>
+        <v>1.314662029498397</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.808495923643695</v>
@@ -21368,7 +21260,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.354454473315157</v>
+        <v>1.328412794110974</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.844805490427003</v>
@@ -21457,7 +21349,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.384197293119772</v>
+        <v>1.364828276093965</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.904320180515561</v>
@@ -21546,7 +21438,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.366822608350011</v>
+        <v>1.354089943178841</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.919500045875137</v>
@@ -21635,7 +21527,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.374153893904025</v>
+        <v>1.363293178930248</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.927036264221507</v>
@@ -21724,7 +21616,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.37906155177401</v>
+        <v>1.369474560595845</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.915838337092757</v>
@@ -21813,7 +21705,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.357660640299649</v>
+        <v>1.352865107540755</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.935152877158401</v>
@@ -21902,7 +21794,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.357278711713135</v>
+        <v>1.352093021871514</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.931647439349928</v>
@@ -21991,7 +21883,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.371601625522104</v>
+        <v>1.357759734573242</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.93979013428832</v>
@@ -22080,7 +21972,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.389739437976038</v>
+        <v>1.392275875568771</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.097371592953915</v>
@@ -22169,7 +22061,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.386548126746918</v>
+        <v>1.395647019354489</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.216620181398392</v>
@@ -22258,7 +22150,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.377668001535461</v>
+        <v>1.384012728944542</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.204101869305428</v>
@@ -22347,7 +22239,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.377878068432356</v>
+        <v>1.385440551088474</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.067435682156687</v>
@@ -22436,7 +22328,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.375491461021731</v>
+        <v>1.372942427820758</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.98691345454081</v>
@@ -22525,7 +22417,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.424661299186909</v>
+        <v>1.41315055560164</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.012458570008065</v>
@@ -22614,7 +22506,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.374668536614518</v>
+        <v>1.362732964744158</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.063775566339918</v>
@@ -22703,7 +22595,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.367365707981212</v>
+        <v>1.357485869411137</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.867494422363585</v>
@@ -22792,7 +22684,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.355373096788618</v>
+        <v>1.337514121428915</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.974715204679865</v>
@@ -22881,7 +22773,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.379290382511037</v>
+        <v>1.34888666204718</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.054831887684579</v>
@@ -22970,7 +22862,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.37420916468567</v>
+        <v>1.341097784669361</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.091435317451651</v>
@@ -23059,7 +22951,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.346920780406551</v>
+        <v>1.313192108061414</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.108837119732471</v>
@@ -23345,7 +23237,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.500833191533121</v>
+        <v>1.449772593259961</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.859642839426762</v>
@@ -23434,7 +23326,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.44468203254809</v>
+        <v>1.399469829967145</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.90139437506391</v>
@@ -23523,7 +23415,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.41789943872823</v>
+        <v>1.376483218719952</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.703052207517955</v>
@@ -23612,7 +23504,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37124375801415</v>
+        <v>1.339301865993193</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.934415850488385</v>
@@ -23701,7 +23593,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.341312612358046</v>
+        <v>1.307904543885044</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.941020203197557</v>
@@ -23790,7 +23682,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.291224654114032</v>
+        <v>1.260712545419737</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.993350543455948</v>
@@ -23879,7 +23771,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.291679725957834</v>
+        <v>1.25370274771837</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.024731605914967</v>
@@ -23968,7 +23860,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.278237317299907</v>
+        <v>1.248451332521676</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.029691252893114</v>
@@ -24057,7 +23949,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.298961379396771</v>
+        <v>1.267037121088865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.016355409213598</v>
@@ -24146,7 +24038,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.256746809724641</v>
+        <v>1.227913966737273</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074087143147855</v>
@@ -24235,7 +24127,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.243996811206709</v>
+        <v>1.221301889043135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.07712923916537</v>
@@ -24324,7 +24216,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.245945438315172</v>
+        <v>1.221814414270232</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.086493485563777</v>
@@ -24413,7 +24305,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.244975145228379</v>
+        <v>1.220662509484304</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.065437461160481</v>
@@ -24502,7 +24394,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.247278225203571</v>
+        <v>1.221471836721411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.004783521593279</v>
@@ -24591,7 +24483,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.240668452317721</v>
+        <v>1.216748064199729</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.100750917134253</v>
@@ -24680,7 +24572,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.237385738120631</v>
+        <v>1.213836851616262</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.078676579910098</v>
@@ -24769,7 +24661,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.253078295001065</v>
+        <v>1.228358579086495</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.980032019923404</v>
@@ -24858,7 +24750,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.274260872575122</v>
+        <v>1.243083993022487</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.875037644161907</v>
@@ -24947,7 +24839,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.262269974043722</v>
+        <v>1.230901723501025</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.978406402152321</v>
@@ -25036,7 +24928,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.368406597041472</v>
+        <v>1.330060501443252</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.941014761448437</v>
@@ -25125,7 +25017,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.416142376303697</v>
+        <v>1.365475925217895</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.050271251850108</v>
@@ -25214,7 +25106,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.40547552289394</v>
+        <v>1.358212422423596</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.143817894074346</v>
@@ -25303,7 +25195,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.40588182006008</v>
+        <v>1.35946966917109</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.110473326143954</v>
@@ -25392,7 +25284,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.417090834694577</v>
+        <v>1.369226441926882</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.015552594879364</v>
@@ -25481,7 +25373,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.471059510691285</v>
+        <v>1.412731385233625</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.090024965122458</v>
@@ -25570,7 +25462,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.479084584777633</v>
+        <v>1.418460716534714</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.035850106264951</v>
@@ -25659,7 +25551,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.474548470224253</v>
+        <v>1.413966702647143</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.03781648256915</v>
@@ -25748,7 +25640,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.460733437272919</v>
+        <v>1.403042511250619</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.03245149224162</v>
@@ -25837,7 +25729,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.476925458603773</v>
+        <v>1.415279815312656</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.885755714486485</v>
@@ -25926,7 +25818,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.514172165631688</v>
+        <v>1.442754381614795</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.954545231992121</v>
@@ -26015,7 +25907,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521195762290414</v>
+        <v>1.452446708126678</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.011509378322651</v>
@@ -26104,7 +25996,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.515506492687526</v>
+        <v>1.443878099964742</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.971401737804042</v>
@@ -26193,7 +26085,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.509657115043755</v>
+        <v>1.441897988917018</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.950026716192399</v>
@@ -26282,7 +26174,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566070017341464</v>
+        <v>1.483403293411502</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.822659712922801</v>
@@ -26371,7 +26263,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.410224934413839</v>
+        <v>1.362012616319154</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.75290607940698</v>
@@ -26460,7 +26352,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.350827119713218</v>
+        <v>1.32184391234299</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.826050569140619</v>
@@ -26549,7 +26441,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.398774461099505</v>
+        <v>1.36326864923264</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.784509072551966</v>
@@ -26638,7 +26530,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.386561177675669</v>
+        <v>1.342946156263143</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.782218219191538</v>
@@ -26727,7 +26619,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.353118123825864</v>
+        <v>1.321692069833399</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.786796649555023</v>
@@ -26816,7 +26708,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.316690800122056</v>
+        <v>1.291014339670822</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.817421634399836</v>
@@ -26905,7 +26797,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.308250315741033</v>
+        <v>1.284136724084885</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.830484988313686</v>
@@ -26994,7 +26886,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.322583788819499</v>
+        <v>1.297341390265066</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.953112064121404</v>
@@ -27083,7 +26975,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.330033559477705</v>
+        <v>1.30820307473606</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.857914091272003</v>
@@ -27172,7 +27064,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.308395368484729</v>
+        <v>1.292780392860158</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.866314894778861</v>
@@ -27261,7 +27153,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.310471662680828</v>
+        <v>1.295805187466514</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.865292868869828</v>
@@ -27350,7 +27242,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.308451748575733</v>
+        <v>1.292845924009864</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.87399183253321</v>
@@ -27439,7 +27331,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.292224615047355</v>
+        <v>1.280706821208672</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.854582128016884</v>
@@ -27528,7 +27420,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.300349995990133</v>
+        <v>1.285975515551613</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.874711614633077</v>
@@ -27617,7 +27509,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.31254412647243</v>
+        <v>1.288357582692015</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.876655023651431</v>
@@ -27706,7 +27598,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.323910885281241</v>
+        <v>1.317447292673753</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.002173690896748</v>
@@ -27795,7 +27687,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.324748436875719</v>
+        <v>1.321724024048801</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.095987348778267</v>
@@ -27884,7 +27776,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.318588567511537</v>
+        <v>1.311965094443023</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.113446496904129</v>
@@ -27973,7 +27865,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.317599826574368</v>
+        <v>1.312572667902534</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.991859401694553</v>
@@ -28062,7 +27954,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.319534427737893</v>
+        <v>1.305440511396884</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.900023587501473</v>
@@ -28151,7 +28043,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.367567906423679</v>
+        <v>1.34513014335676</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.916765725287159</v>
@@ -28240,7 +28132,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.324629909992176</v>
+        <v>1.30152496724955</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.983254117068484</v>
@@ -28329,7 +28221,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.325584219064463</v>
+        <v>1.305896134576051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.84946079503063</v>
@@ -28418,7 +28310,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.335439747096477</v>
+        <v>1.311321476199964</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.94741361654806</v>
@@ -28507,7 +28399,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.363267529786272</v>
+        <v>1.326514270050886</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.025819846356039</v>
@@ -28596,7 +28488,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.364139681356321</v>
+        <v>1.325340985083851</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.067232329636441</v>
@@ -28685,7 +28577,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.339516540139368</v>
+        <v>1.302235525874459</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.072427716628129</v>
@@ -28971,7 +28863,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.361807340077131</v>
+        <v>1.309212767547086</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.637830284677846</v>
@@ -29060,7 +28952,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.310933903175123</v>
+        <v>1.264893286226326</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.700387033684199</v>
@@ -29149,7 +29041,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.284640030080836</v>
+        <v>1.242938264733065</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.549556332183093</v>
@@ -29238,7 +29130,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.245018451701202</v>
+        <v>1.211319355485533</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.752453884194061</v>
@@ -29327,7 +29219,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.237306708196122</v>
+        <v>1.203983672568189</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.786387539689598</v>
@@ -29416,7 +29308,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.210860106952381</v>
+        <v>1.179877038859254</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.868010284224336</v>
@@ -29505,7 +29397,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.218471571945814</v>
+        <v>1.179408897272281</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.918513915306562</v>
@@ -29594,7 +29486,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.205673059066422</v>
+        <v>1.173692497284661</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.918602558283334</v>
@@ -29683,7 +29575,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.232269415969654</v>
+        <v>1.197896812374602</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.913620490403257</v>
@@ -29772,7 +29664,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.201334050384397</v>
+        <v>1.168299363521846</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.983401543127784</v>
@@ -29861,7 +29753,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.190436763630085</v>
+        <v>1.161603856381993</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.974182515844669</v>
@@ -29950,7 +29842,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.191759219242767</v>
+        <v>1.163088740435818</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.977489832185035</v>
@@ -30039,7 +29931,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.192918868859359</v>
+        <v>1.16406545294323</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.981984783200895</v>
@@ -30128,7 +30020,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.194043695856473</v>
+        <v>1.163715984658841</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.947243903727039</v>
@@ -30217,7 +30109,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.192926906010449</v>
+        <v>1.16445665975317</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.023057679639731</v>
@@ -30306,7 +30198,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.183919766405071</v>
+        <v>1.157729725056822</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.990996245258258</v>
@@ -30395,7 +30287,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.195198320363146</v>
+        <v>1.16719832528081</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.901417274356876</v>
@@ -30484,7 +30376,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.21125576420624</v>
+        <v>1.178504802378649</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.77551301473379</v>
@@ -30573,7 +30465,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.196577414893782</v>
+        <v>1.162194395924558</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.871324769249279</v>
@@ -30662,7 +30554,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.330653957349525</v>
+        <v>1.295738148284095</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.890607155088704</v>
@@ -30751,7 +30643,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.382868774004516</v>
+        <v>1.336258482004656</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.97612865007385</v>
@@ -30840,7 +30732,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.372772627259504</v>
+        <v>1.329219005931408</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.049096271311589</v>
@@ -30929,7 +30821,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.372233548506722</v>
+        <v>1.329205564456142</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.018626059601667</v>
@@ -31018,7 +30910,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.382500040531845</v>
+        <v>1.337122491971516</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.949012783024722</v>
@@ -31107,7 +30999,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.430859523339836</v>
+        <v>1.376756762100448</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.970583780651517</v>
@@ -31196,7 +31088,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440828312874548</v>
+        <v>1.384071553498341</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.929692479022483</v>
@@ -31285,7 +31177,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.439925220030537</v>
+        <v>1.38308793597792</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.919483577506433</v>
@@ -31374,7 +31266,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.433069346363424</v>
+        <v>1.377803046929988</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.916471760313385</v>
@@ -31463,7 +31355,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.451274676577512</v>
+        <v>1.392665606847526</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.787066046290103</v>
@@ -31552,7 +31444,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.488817696841192</v>
+        <v>1.419125597512115</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.828792452577282</v>
@@ -31641,7 +31533,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495686206157519</v>
+        <v>1.425039078765551</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.879081867725671</v>
@@ -31730,7 +31622,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.492850255057343</v>
+        <v>1.417900650987703</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.852814243661813</v>
@@ -31819,7 +31711,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.500638475051588</v>
+        <v>1.423733331858051</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.840850043632187</v>
@@ -31908,7 +31800,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.563159966988064</v>
+        <v>1.465341220667434</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.709607178342573</v>
@@ -31997,7 +31889,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.344880835979824</v>
+        <v>1.282286077641514</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.607379823834841</v>
@@ -32086,7 +31978,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.23139287377771</v>
+        <v>1.186730935089896</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.620500746422263</v>
@@ -32175,7 +32067,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.272897336083161</v>
+        <v>1.222044176301824</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.557712646222855</v>
@@ -32264,7 +32156,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.275874108488835</v>
+        <v>1.215934298363666</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.574458794805059</v>
@@ -32353,7 +32245,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.240805844129472</v>
+        <v>1.197286989160879</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.59155706628483</v>
@@ -32442,7 +32334,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.214944048420861</v>
+        <v>1.178806667781256</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.635740162601174</v>
@@ -32531,7 +32423,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.200459532895794</v>
+        <v>1.165063778583112</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.640717342355667</v>
@@ -32620,7 +32512,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.194013842666504</v>
+        <v>1.160501511272759</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.646213384770917</v>
@@ -32709,7 +32601,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.197780762103331</v>
+        <v>1.16311592665614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.640474402366903</v>
@@ -32798,7 +32690,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.179488596665977</v>
+        <v>1.149003394565292</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.668913825868305</v>
@@ -32887,7 +32779,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.180882881617726</v>
+        <v>1.151261882652314</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.67418269779066</v>
@@ -32976,7 +32868,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.185859783606319</v>
+        <v>1.154753988261915</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.670401278808258</v>
@@ -33065,7 +32957,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.168672352634894</v>
+        <v>1.142520866989446</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.686477134660058</v>
@@ -33154,7 +33046,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.176471836105381</v>
+        <v>1.15152986216268</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.697621958356317</v>
@@ -33243,7 +33135,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.208400824338073</v>
+        <v>1.173521901982785</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.721890973684713</v>
@@ -33332,7 +33224,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.199509502797317</v>
+        <v>1.183399026696363</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.807651399251286</v>
@@ -33421,7 +33313,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.200704425410541</v>
+        <v>1.185940061936565</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.887535185723481</v>
@@ -33510,7 +33402,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.201375432985101</v>
+        <v>1.181788480964839</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.905809955180917</v>
@@ -33599,7 +33491,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.19529293037158</v>
+        <v>1.175910783848785</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.813219155810356</v>
@@ -33688,7 +33580,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.208299566801437</v>
+        <v>1.18064777592969</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.743201717643453</v>
@@ -33777,7 +33669,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.260040492638226</v>
+        <v>1.224926490506886</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.764764926598837</v>
@@ -33866,7 +33758,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.229497596689106</v>
+        <v>1.19486990075838</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.847100211015136</v>
@@ -33955,7 +33847,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.236391469123536</v>
+        <v>1.202160257569125</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.85549653982405</v>
@@ -34044,7 +33936,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.270463203907861</v>
+        <v>1.23524010426133</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.868701781378316</v>
@@ -34133,7 +34025,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.309803476041293</v>
+        <v>1.264678862649484</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.951026930017326</v>
@@ -34222,7 +34114,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.311880568664334</v>
+        <v>1.266349504052874</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.985755424599961</v>
@@ -34311,7 +34203,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.294835046997084</v>
+        <v>1.251562589103091</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.0141564166857</v>
@@ -34597,7 +34489,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.438912361545691</v>
+        <v>1.385875021747813</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.840668927281234</v>
@@ -34686,7 +34578,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.395565629880686</v>
+        <v>1.346059982405924</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.883184922095378</v>
@@ -34775,7 +34667,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.370363959112052</v>
+        <v>1.323882323959235</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.698480670380187</v>
@@ -34864,7 +34756,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.329516963801723</v>
+        <v>1.288970126771028</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.909116811684743</v>
@@ -34953,7 +34845,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.306876196735054</v>
+        <v>1.26635208178952</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.910719332390457</v>
@@ -35042,7 +34934,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.26717754046868</v>
+        <v>1.230543390938385</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.97936819535572</v>
@@ -35131,7 +35023,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.268634760872105</v>
+        <v>1.224360846600441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.020126390755477</v>
@@ -35220,7 +35112,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.255980500911878</v>
+        <v>1.219530098327708</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.020065039406604</v>
@@ -35309,7 +35201,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.275635139879502</v>
+        <v>1.237071338231022</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.035180057711889</v>
@@ -35398,7 +35290,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.240453074250952</v>
+        <v>1.204169489775732</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.090856514291543</v>
@@ -35487,7 +35379,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.227051378184078</v>
+        <v>1.198098387660962</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.077179688507155</v>
@@ -35576,7 +35468,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.224655763622064</v>
+        <v>1.196448045102667</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.059336177678453</v>
@@ -35665,7 +35557,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.227232750199929</v>
+        <v>1.199085496850632</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.048287203925119</v>
@@ -35754,7 +35646,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.224205366091223</v>
+        <v>1.195798266011699</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.011739909967545</v>
@@ -35843,7 +35735,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.219555585906242</v>
+        <v>1.193331568554074</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.097796924079021</v>
@@ -35932,7 +35824,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.213491437662267</v>
+        <v>1.188171039784554</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.072987923145423</v>
@@ -36021,7 +35913,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.228228148411631</v>
+        <v>1.203222290327243</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.989355759591561</v>
@@ -36110,7 +36002,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.247763723865398</v>
+        <v>1.218646875580429</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.864091256955704</v>
@@ -36199,7 +36091,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.237253119100927</v>
+        <v>1.208575451603648</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.961097789635762</v>
@@ -36288,7 +36180,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.346805884369758</v>
+        <v>1.312665941050781</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.954468287320828</v>
@@ -36377,7 +36269,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.397191991394177</v>
+        <v>1.353109373656771</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.030448185572308</v>
@@ -36466,7 +36358,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.389824652815151</v>
+        <v>1.347779062040402</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.132004333448561</v>
@@ -36555,7 +36447,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.39164323624174</v>
+        <v>1.348975240364754</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.099653915184255</v>
@@ -36644,7 +36536,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.397608903749727</v>
+        <v>1.353588597232164</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.000649000798766</v>
@@ -36733,7 +36625,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.445401306330336</v>
+        <v>1.393478427870384</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.07283095690576</v>
@@ -36822,7 +36714,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.452037482630004</v>
+        <v>1.397577442375682</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.031927805094569</v>
@@ -36911,7 +36803,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.451800095726658</v>
+        <v>1.394994025184962</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.020389555751197</v>
@@ -37000,7 +36892,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.447176284928162</v>
+        <v>1.390648045529062</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.047414497677784</v>
@@ -37089,7 +36981,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468533882356787</v>
+        <v>1.407467626930528</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.867223180991179</v>
@@ -37178,7 +37070,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.50283157775419</v>
+        <v>1.431987208018697</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.935840557297489</v>
@@ -37267,7 +37159,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511094743432001</v>
+        <v>1.440962037958436</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.000346831637117</v>
@@ -37356,7 +37248,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507047080213235</v>
+        <v>1.434847019213146</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.963430897181899</v>
@@ -37445,7 +37337,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.511556453507758</v>
+        <v>1.437497228142426</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.941255439836999</v>
@@ -37534,7 +37426,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562324691849851</v>
+        <v>1.473681901514886</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.819148397479804</v>
@@ -37623,7 +37515,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.403841843127767</v>
+        <v>1.347115110998732</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.737395071036955</v>
@@ -37712,7 +37604,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.344185330484982</v>
+        <v>1.300926512318733</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.8019454157434</v>
@@ -37801,7 +37693,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.386174971278065</v>
+        <v>1.337800186183455</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.755276527981074</v>
@@ -37890,7 +37782,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.374425402505449</v>
+        <v>1.320789072227951</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.755696494129404</v>
@@ -37979,7 +37871,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.350455626595298</v>
+        <v>1.308712316625959</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.770360238793046</v>
@@ -38068,7 +37960,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.318599239205996</v>
+        <v>1.283931372784918</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.790626618720869</v>
@@ -38157,7 +38049,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.314449379561458</v>
+        <v>1.281949261758655</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.82801625988525</v>
@@ -38246,7 +38138,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.318828374193729</v>
+        <v>1.291223815906902</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.824044417821073</v>
@@ -38335,7 +38227,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.347087524210397</v>
+        <v>1.329285913661365</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.878922895677277</v>
@@ -38424,7 +38316,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.339912794293357</v>
+        <v>1.330739527891408</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.906421980358389</v>
@@ -38513,7 +38405,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.358413195376173</v>
+        <v>1.351177896865634</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.91028252697369</v>
@@ -38602,7 +38494,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.362653213308377</v>
+        <v>1.35472312284952</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.927889959528946</v>
@@ -38691,7 +38583,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.340045968371416</v>
+        <v>1.331986634228151</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.950613225368565</v>
@@ -38780,7 +38672,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.332305350964796</v>
+        <v>1.331158423409911</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.959395857342661</v>
@@ -38869,7 +38761,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.351785114562617</v>
+        <v>1.344213618361535</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.953984735559386</v>
@@ -38958,7 +38850,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.360743527942044</v>
+        <v>1.36737489132309</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.196493609596774</v>
@@ -39047,7 +38939,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.36066966871055</v>
+        <v>1.371716576780982</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.254265427988982</v>
@@ -39136,7 +39028,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.356054159432201</v>
+        <v>1.36305478783765</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.300518894718581</v>
@@ -39225,7 +39117,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.363012991650932</v>
+        <v>1.371383468492628</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.192032325168053</v>
@@ -39314,7 +39206,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.366281887899981</v>
+        <v>1.368101128583763</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.053798985769621</v>
@@ -39403,7 +39295,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.402188412341722</v>
+        <v>1.397827327185687</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.071873963635811</v>
@@ -39492,7 +39384,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.361094291576355</v>
+        <v>1.35567970006123</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.107826883032049</v>
@@ -39581,7 +39473,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.358172391515577</v>
+        <v>1.352886762996809</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.125141192191331</v>
@@ -39670,7 +39562,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.357099979058451</v>
+        <v>1.342214913988253</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.048916363537834</v>
@@ -39759,7 +39651,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.37545939891323</v>
+        <v>1.34572964185822</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.124604920327454</v>
@@ -39848,7 +39740,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.365650412524773</v>
+        <v>1.333664670249572</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.168721015448382</v>
@@ -39937,7 +39829,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.338401123207333</v>
+        <v>1.306729211880605</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.148882113354221</v>
